--- a/draft/figure/Graph/not_realtask/xls/Memcpy_hybrid_DtoH.xlsx
+++ b/draft/figure/Graph/not_realtask/xls/Memcpy_hybrid_DtoH.xlsx
@@ -17,6 +17,9 @@
     <sheet name="GPC4IORW" sheetId="14" r:id="rId8"/>
     <sheet name="グラフ" sheetId="7" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1444,11 +1447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129776600"/>
-        <c:axId val="-2130040232"/>
+        <c:axId val="2136430856"/>
+        <c:axId val="2129396744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129776600"/>
+        <c:axId val="2136430856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1490,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2130040232"/>
+        <c:crossAx val="2129396744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1496,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2130040232"/>
+        <c:axId val="2129396744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1527,7 +1530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129776600"/>
+        <c:crossAx val="2136430856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1603,6 +1606,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3567,11 +3571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2123179336"/>
-        <c:axId val="2122418600"/>
+        <c:axId val="2134535480"/>
+        <c:axId val="2134883336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2123179336"/>
+        <c:axId val="2134535480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3594,6 +3598,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3610,7 +3615,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122418600"/>
+        <c:crossAx val="2134883336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3619,7 +3624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122418600"/>
+        <c:axId val="2134883336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3644,13 +3649,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123179336"/>
+        <c:crossAx val="2134535480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4749,11 +4755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091798488"/>
-        <c:axId val="2113169384"/>
+        <c:axId val="2134414216"/>
+        <c:axId val="2134688152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091798488"/>
+        <c:axId val="2134414216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4793,7 +4799,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2113169384"/>
+        <c:crossAx val="2134688152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4802,7 +4808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2113169384"/>
+        <c:axId val="2134688152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4834,7 +4840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091798488"/>
+        <c:crossAx val="2134414216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6234,11 +6240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2121814472"/>
-        <c:axId val="2128569880"/>
+        <c:axId val="2119749896"/>
+        <c:axId val="2126765800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2121814472"/>
+        <c:axId val="2119749896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,7 +6284,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2128569880"/>
+        <c:crossAx val="2126765800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6287,7 +6293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128569880"/>
+        <c:axId val="2126765800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -6319,7 +6325,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121814472"/>
+        <c:crossAx val="2119749896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6360,6 +6366,1518 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
+          <c:h val="0.775684760917655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DMA/DMA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMADMA!$B$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.81279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.84001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96232</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.77981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.86171</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.80681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.816109999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.88954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.93006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.91344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.489569999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.741469999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.97441</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.96025</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.989409999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.98019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.08251</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.291960000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.33582</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.58157000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HUB/DMA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HUBDMA!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.97778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99935</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.84905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87663</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86046</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.87292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.90896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.94963</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.00011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.95746</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49249</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.82381</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.36537</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.729089999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.04224</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.08507</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.16314017000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.38877989999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.15159992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>194.29374022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>388.60508914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GPC/DMA</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPCDMA!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.85805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66019</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86818</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67894</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92314</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.898990000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.991810000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58277</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.925409999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.824340000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.626959999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.888509999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.74165</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.42376996999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.02928989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125.93411978</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252.14042082</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>504.82157957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>GPC4/DMA</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPC4DMA!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.45085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87494</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.998399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.870549999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.998079999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90449</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.977169999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.928739999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.001500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.92907</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.63154</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.73206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.00086</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.117400000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.231990000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.436140000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.05923999000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34.28164004000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>68.52873972</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>136.94339937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>IORW/IORW</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IORWIORW!$B$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.00666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55335</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.04416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.80718</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.626339999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.597380000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.34653</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.61307996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65.07486007000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>129.78070006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247.4897503500001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>498.0970715100001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1006.23047794</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2048.06463993</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3858.16168213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>GPC4/IORW</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPC4IORW!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.01782</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09366</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16261</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30403</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57115</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.13814</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.79131</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.78331</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.45142</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.28509005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.97942990000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66.07535004999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102.99707995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>215.02194047</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>607.10397921</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1151.18642759</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2226.27408572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4037.148911109999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>GPC/IORW</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPCIORW!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.01793</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01688</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09285</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14636</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29893</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5468</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.03302</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.552830000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.814289999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.381229999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.28011995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.43951992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.22410991999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>143.21503966</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>263.02553034</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>573.6060198700001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1167.06579348</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2372.107907739999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3875.287875980001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>HUB/IORW</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HUBIORW!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.0141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0163</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04648</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09281</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15595</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.54955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.08171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.780329999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.70895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.588180000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.05517</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.83716981999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.17770031000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>123.78943021</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>270.34486923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>550.69348877</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1171.64857971</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2304.82315673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4164.553064029997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121119704"/>
+        <c:axId val="2122229944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121119704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Data Size </a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-1080000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2122229944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2122229944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Data Transfer Time ( ms )</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121119704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.167318019600068"/>
+          <c:h val="0.300541280571756"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -6502,7 +8020,549 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMA"/>
+      <sheetName val="IORW"/>
+      <sheetName val="PMEM"/>
+      <sheetName val="HUB"/>
+      <sheetName val="GPC"/>
+      <sheetName val="GPC4"/>
+      <sheetName val="グラフ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>16 B</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>32 B</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>64 B</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>128 B</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>256 B</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>512 B</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>1 KB</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>2 KB</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>4 KB</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>8 KB</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>16 KB</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>32 KB</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>64 KB</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>128 KB</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>256 KB</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>512 KB</v>
+          </cell>
+          <cell r="R5" t="str">
+            <v>1 MB</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>2 MB</v>
+          </cell>
+          <cell r="T5" t="str">
+            <v>4 MB</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>8 MB</v>
+          </cell>
+          <cell r="V5" t="str">
+            <v>16 MB</v>
+          </cell>
+          <cell r="W5" t="str">
+            <v>32 MB</v>
+          </cell>
+          <cell r="X5" t="str">
+            <v>64 MB</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.50439000000000012</v>
+          </cell>
+          <cell r="C9">
+            <v>0.56759999999999977</v>
+          </cell>
+          <cell r="D9">
+            <v>0.51110000000000022</v>
+          </cell>
+          <cell r="E9">
+            <v>0.53892999999999991</v>
+          </cell>
+          <cell r="F9">
+            <v>0.50746999999999987</v>
+          </cell>
+          <cell r="G9">
+            <v>0.52881000000000011</v>
+          </cell>
+          <cell r="H9">
+            <v>0.49443999999999988</v>
+          </cell>
+          <cell r="I9">
+            <v>0.53405000000000002</v>
+          </cell>
+          <cell r="J9">
+            <v>0.53729000000000005</v>
+          </cell>
+          <cell r="K9">
+            <v>0.59913999999999989</v>
+          </cell>
+          <cell r="L9">
+            <v>0.57677000000000012</v>
+          </cell>
+          <cell r="M9">
+            <v>0.63575000000000026</v>
+          </cell>
+          <cell r="N9">
+            <v>0.63066999999999995</v>
+          </cell>
+          <cell r="O9">
+            <v>0.60153999999999996</v>
+          </cell>
+          <cell r="P9">
+            <v>0.59076000000000006</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.64145000000000008</v>
+          </cell>
+          <cell r="R9">
+            <v>0.69660000000000011</v>
+          </cell>
+          <cell r="S9">
+            <v>0.86072000000000015</v>
+          </cell>
+          <cell r="T9">
+            <v>1.1444600000000005</v>
+          </cell>
+          <cell r="U9">
+            <v>1.81203</v>
+          </cell>
+          <cell r="V9">
+            <v>3.0765699999999976</v>
+          </cell>
+          <cell r="W9">
+            <v>5.6455799999999998</v>
+          </cell>
+          <cell r="X9">
+            <v>10.701120000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="9">
+          <cell r="B9">
+            <v>5.2200000000000033E-3</v>
+          </cell>
+          <cell r="C9">
+            <v>5.2700000000000038E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>4.9800000000000035E-3</v>
+          </cell>
+          <cell r="E9">
+            <v>4.7900000000000035E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>4.9300000000000038E-3</v>
+          </cell>
+          <cell r="G9">
+            <v>5.0400000000000037E-3</v>
+          </cell>
+          <cell r="H9">
+            <v>5.2400000000000033E-3</v>
+          </cell>
+          <cell r="I9">
+            <v>5.4300000000000034E-3</v>
+          </cell>
+          <cell r="J9">
+            <v>5.7300000000000042E-3</v>
+          </cell>
+          <cell r="K9">
+            <v>6.6600000000000036E-3</v>
+          </cell>
+          <cell r="L9">
+            <v>8.2200000000000068E-3</v>
+          </cell>
+          <cell r="M9">
+            <v>1.3349999999999994E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>2.0759999999999983E-2</v>
+          </cell>
+          <cell r="O9">
+            <v>3.6059999999999974E-2</v>
+          </cell>
+          <cell r="P9">
+            <v>6.6920000000000007E-2</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.12551000000000001</v>
+          </cell>
+          <cell r="R9">
+            <v>0.23211999999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>0.45490999999999993</v>
+          </cell>
+          <cell r="T9">
+            <v>0.92941000000000018</v>
+          </cell>
+          <cell r="U9">
+            <v>1.8752099999999994</v>
+          </cell>
+          <cell r="V9">
+            <v>3.7371900000000009</v>
+          </cell>
+          <cell r="W9">
+            <v>7.4926600000000017</v>
+          </cell>
+          <cell r="X9">
+            <v>14.880720000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="9">
+          <cell r="B9">
+            <v>2.8060000000000015E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.7830000000000008E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>2.6989999999999979E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.8099999999999984E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>2.8789999999999996E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>3.2656999999999985E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>3.6670000000000008E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0.10956999999999997</v>
+          </cell>
+          <cell r="J9">
+            <v>6.6940000000000013E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>0.10956999999999997</v>
+          </cell>
+          <cell r="L9">
+            <v>0.19170000000000006</v>
+          </cell>
+          <cell r="M9">
+            <v>0.35800999999999999</v>
+          </cell>
+          <cell r="N9">
+            <v>0.68367</v>
+          </cell>
+          <cell r="O9">
+            <v>1.2691699999999995</v>
+          </cell>
+          <cell r="P9">
+            <v>2.6727299999999992</v>
+          </cell>
+          <cell r="Q9">
+            <v>5.2848900000000008</v>
+          </cell>
+          <cell r="R9">
+            <v>5.5413700000000006</v>
+          </cell>
+          <cell r="S9">
+            <v>10.123900000000003</v>
+          </cell>
+          <cell r="T9">
+            <v>20.651010230000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>1.4790000000000001E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.4699999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.5049999999999994E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.4839999999999996E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.4659999999999998E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>1.6629999999999995E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.9139999999999994E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.6519999999999991E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>3.8649999999999969E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>6.3469999999999985E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.11298000000000007</v>
+          </cell>
+          <cell r="M9">
+            <v>0.21199999999999983</v>
+          </cell>
+          <cell r="N9">
+            <v>0.41116999999999981</v>
+          </cell>
+          <cell r="O9">
+            <v>0.81407999999999991</v>
+          </cell>
+          <cell r="P9">
+            <v>1.5812099999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.1228600000000011</v>
+          </cell>
+          <cell r="R9">
+            <v>6.2702000000000009</v>
+          </cell>
+          <cell r="S9">
+            <v>12.519739999999999</v>
+          </cell>
+          <cell r="T9">
+            <v>25.168320019999996</v>
+          </cell>
+          <cell r="U9">
+            <v>51.016309960000015</v>
+          </cell>
+          <cell r="V9">
+            <v>102.45390990999998</v>
+          </cell>
+          <cell r="W9">
+            <v>205.31741943999995</v>
+          </cell>
+          <cell r="X9">
+            <v>412.1913299900001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="9">
+          <cell r="B9">
+            <v>1.9709999999999991E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.9099999999999989E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.9949999999999982E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9409999999999986E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9089999999999992E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.2239999999999975E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.6419999999999968E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>3.6890000000000006E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>5.4399999999999969E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>8.8710000000000039E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.16</v>
+          </cell>
+          <cell r="M9">
+            <v>0.30190999999999979</v>
+          </cell>
+          <cell r="N9">
+            <v>0.58777000000000035</v>
+          </cell>
+          <cell r="O9">
+            <v>1.1417200000000001</v>
+          </cell>
+          <cell r="P9">
+            <v>2.2941399999999996</v>
+          </cell>
+          <cell r="Q9">
+            <v>4.5464499999999983</v>
+          </cell>
+          <cell r="R9">
+            <v>9.0558300000000038</v>
+          </cell>
+          <cell r="S9">
+            <v>18.160590089999999</v>
+          </cell>
+          <cell r="T9">
+            <v>36.537869999999984</v>
+          </cell>
+          <cell r="U9">
+            <v>73.476889779999951</v>
+          </cell>
+          <cell r="V9">
+            <v>147.25069986000003</v>
+          </cell>
+          <cell r="W9">
+            <v>294.9716695699999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="B9">
+            <v>2.0779999999999989E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.0369999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.990999999999999E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9979999999999998E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9790000000000002E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.0039999999999992E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.0569999999999991E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.2609999999999984E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>2.8690000000000011E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>3.6999999999999984E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>5.4009999999999996E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>9.0509999999999979E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>0.16283000000000006</v>
+          </cell>
+          <cell r="O9">
+            <v>0.30843999999999983</v>
+          </cell>
+          <cell r="P9">
+            <v>0.58264999999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>1.1656700000000002</v>
+          </cell>
+          <cell r="R9">
+            <v>2.303879999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>4.5803000000000011</v>
+          </cell>
+          <cell r="T9">
+            <v>9.1295700000000028</v>
+          </cell>
+          <cell r="U9">
+            <v>18.454040150000004</v>
+          </cell>
+          <cell r="V9">
+            <v>37.025059740000017</v>
+          </cell>
+          <cell r="W9">
+            <v>74.142030670000025</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72778,8 +74838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="N101" sqref="N101"/>
+    <sheetView tabSelected="1" topLeftCell="J95" workbookViewId="0">
+      <selection activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
